--- a/FramworkDemo_WordPressAutomation/src/main/java/com/wordpress/qa/testdata/WordPress_TestData.xlsx
+++ b/FramworkDemo_WordPressAutomation/src/main/java/com/wordpress/qa/testdata/WordPress_TestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="3030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13575" windowHeight="5445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="NewUsers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>UserName</t>
   </si>
@@ -39,38 +39,41 @@
     <t>enterUrl</t>
   </si>
   <si>
-    <t>https://aeqwsddfdg.com</t>
-  </si>
-  <si>
-    <t>https://aejhsdfg.com</t>
-  </si>
-  <si>
-    <t>gfdtfgh</t>
-  </si>
-  <si>
-    <t>gfdtft@gmail.com</t>
-  </si>
-  <si>
-    <t>gfdsytf</t>
-  </si>
-  <si>
-    <t>tftyfh</t>
-  </si>
-  <si>
-    <t>hsdfyfty</t>
-  </si>
-  <si>
-    <t>abchfjgt@gmail.com</t>
-  </si>
-  <si>
-    <t>jhgsdfyugyu</t>
+    <t>uone@gmail.com</t>
+  </si>
+  <si>
+    <t>utwo@gmail.com</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>wilson</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>joseph</t>
+  </si>
+  <si>
+    <t>mwilsom</t>
+  </si>
+  <si>
+    <t>rjoseph</t>
+  </si>
+  <si>
+    <t>https://abcd.com</t>
+  </si>
+  <si>
+    <t>https://efgh.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,10 +214,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,7 +248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,20 +423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,22 +450,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -481,46 +482,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
